--- a/Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6903F7F-AFBB-4322-85AA-F93D1B1BD9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTEGY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>DTEGY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>87973500</v>
+        <v>84885300</v>
       </c>
       <c r="E8" s="3">
-        <v>85799600</v>
+        <v>84089800</v>
       </c>
       <c r="F8" s="3">
-        <v>81260500</v>
+        <v>82011900</v>
       </c>
       <c r="G8" s="3">
-        <v>73548600</v>
+        <v>77673100</v>
       </c>
       <c r="H8" s="3">
-        <v>70583500</v>
+        <v>70301600</v>
       </c>
       <c r="I8" s="3">
-        <v>68279400</v>
+        <v>67467500</v>
       </c>
       <c r="J8" s="3">
+        <v>65265000</v>
+      </c>
+      <c r="K8" s="3">
         <v>68847500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42078700</v>
+        <v>40101000</v>
       </c>
       <c r="E9" s="3">
-        <v>41064600</v>
+        <v>40221100</v>
       </c>
       <c r="F9" s="3">
-        <v>49270700</v>
+        <v>39251700</v>
       </c>
       <c r="G9" s="3">
-        <v>45237500</v>
+        <v>47095500</v>
       </c>
       <c r="H9" s="3">
-        <v>42556500</v>
+        <v>43240400</v>
       </c>
       <c r="I9" s="3">
-        <v>40210000</v>
+        <v>40677700</v>
       </c>
       <c r="J9" s="3">
+        <v>38434900</v>
+      </c>
+      <c r="K9" s="3">
         <v>39774600</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45894800</v>
+        <v>44784200</v>
       </c>
       <c r="E10" s="3">
-        <v>44735100</v>
+        <v>43868700</v>
       </c>
       <c r="F10" s="3">
-        <v>31989800</v>
+        <v>42760200</v>
       </c>
       <c r="G10" s="3">
-        <v>28311100</v>
+        <v>30577600</v>
       </c>
       <c r="H10" s="3">
-        <v>28027100</v>
+        <v>27061300</v>
       </c>
       <c r="I10" s="3">
-        <v>28069300</v>
+        <v>26789800</v>
       </c>
       <c r="J10" s="3">
+        <v>26830100</v>
+      </c>
+      <c r="K10" s="3">
         <v>29072900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,47 +903,53 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>576300</v>
+        <v>1350900</v>
       </c>
       <c r="E14" s="3">
-        <v>792300</v>
+        <v>550900</v>
       </c>
       <c r="F14" s="3">
-        <v>173700</v>
+        <v>757300</v>
       </c>
       <c r="G14" s="3">
-        <v>139700</v>
+        <v>166100</v>
       </c>
       <c r="H14" s="3">
-        <v>960200</v>
+        <v>133500</v>
       </c>
       <c r="I14" s="3">
-        <v>25873100</v>
+        <v>917800</v>
       </c>
       <c r="J14" s="3">
+        <v>24730900</v>
+      </c>
+      <c r="K14" s="3">
         <v>3917000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14590500</v>
+        <v>14712700</v>
       </c>
       <c r="E15" s="3">
-        <v>14893300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>13946300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14235800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -906,9 +963,12 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>76959700</v>
+        <v>75880200</v>
       </c>
       <c r="E17" s="3">
-        <v>75042800</v>
+        <v>73562200</v>
       </c>
       <c r="F17" s="3">
-        <v>73011000</v>
+        <v>71729900</v>
       </c>
       <c r="G17" s="3">
-        <v>65042000</v>
+        <v>69787800</v>
       </c>
       <c r="H17" s="3">
-        <v>64796700</v>
+        <v>62170600</v>
       </c>
       <c r="I17" s="3">
-        <v>72930000</v>
+        <v>61936100</v>
       </c>
       <c r="J17" s="3">
+        <v>69710400</v>
+      </c>
+      <c r="K17" s="3">
         <v>62290600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11013900</v>
+        <v>9005100</v>
       </c>
       <c r="E18" s="3">
-        <v>10756800</v>
+        <v>10527600</v>
       </c>
       <c r="F18" s="3">
-        <v>8249500</v>
+        <v>10281900</v>
       </c>
       <c r="G18" s="3">
-        <v>8506600</v>
+        <v>7885300</v>
       </c>
       <c r="H18" s="3">
-        <v>5786900</v>
+        <v>8131100</v>
       </c>
       <c r="I18" s="3">
-        <v>-4650600</v>
+        <v>5531400</v>
       </c>
       <c r="J18" s="3">
+        <v>-4445300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6556900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2197400</v>
+        <v>-874000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2232600</v>
+        <v>-2100400</v>
       </c>
       <c r="F20" s="3">
-        <v>421400</v>
+        <v>-2134000</v>
       </c>
       <c r="G20" s="3">
-        <v>-272300</v>
+        <v>402800</v>
       </c>
       <c r="H20" s="3">
-        <v>-483600</v>
+        <v>-260300</v>
       </c>
       <c r="I20" s="3">
-        <v>-85700</v>
+        <v>-462300</v>
       </c>
       <c r="J20" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="K20" s="3">
         <v>30500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>25949300</v>
+        <v>23692300</v>
       </c>
       <c r="E21" s="3">
-        <v>24240500</v>
+        <v>24832000</v>
       </c>
       <c r="F21" s="3">
-        <v>22014500</v>
+        <v>23196200</v>
       </c>
       <c r="G21" s="3">
-        <v>20654600</v>
+        <v>21064600</v>
       </c>
       <c r="H21" s="3">
-        <v>18111200</v>
+        <v>19763200</v>
       </c>
       <c r="I21" s="3">
-        <v>21054600</v>
+        <v>17332800</v>
       </c>
       <c r="J21" s="3">
+        <v>20167600</v>
+      </c>
+      <c r="K21" s="3">
         <v>23544100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2954500</v>
+        <v>2349400</v>
       </c>
       <c r="E22" s="3">
-        <v>3186900</v>
+        <v>2824000</v>
       </c>
       <c r="F22" s="3">
-        <v>3062500</v>
+        <v>3046200</v>
       </c>
       <c r="G22" s="3">
-        <v>3128200</v>
+        <v>2927300</v>
       </c>
       <c r="H22" s="3">
-        <v>2805400</v>
+        <v>2990100</v>
       </c>
       <c r="I22" s="3">
-        <v>2745500</v>
+        <v>2681600</v>
       </c>
       <c r="J22" s="3">
+        <v>2624300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3043700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5862000</v>
+        <v>5781600</v>
       </c>
       <c r="E23" s="3">
-        <v>5337300</v>
+        <v>5603200</v>
       </c>
       <c r="F23" s="3">
-        <v>5608500</v>
+        <v>5101700</v>
       </c>
       <c r="G23" s="3">
-        <v>5106100</v>
+        <v>5360900</v>
       </c>
       <c r="H23" s="3">
-        <v>2497900</v>
+        <v>4880700</v>
       </c>
       <c r="I23" s="3">
-        <v>-7481900</v>
+        <v>2387600</v>
       </c>
       <c r="J23" s="3">
+        <v>-7151600</v>
+      </c>
+      <c r="K23" s="3">
         <v>3543700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-655000</v>
+        <v>2046500</v>
       </c>
       <c r="E24" s="3">
-        <v>1693800</v>
+        <v>-626100</v>
       </c>
       <c r="F24" s="3">
-        <v>1497800</v>
+        <v>1619000</v>
       </c>
       <c r="G24" s="3">
-        <v>1298200</v>
+        <v>1431700</v>
       </c>
       <c r="H24" s="3">
-        <v>1084600</v>
+        <v>1240900</v>
       </c>
       <c r="I24" s="3">
-        <v>-1779500</v>
+        <v>1036700</v>
       </c>
       <c r="J24" s="3">
+        <v>-1700900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2757300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6517000</v>
+        <v>3735100</v>
       </c>
       <c r="E26" s="3">
-        <v>3643500</v>
+        <v>6229300</v>
       </c>
       <c r="F26" s="3">
-        <v>4110700</v>
+        <v>3482700</v>
       </c>
       <c r="G26" s="3">
-        <v>3807800</v>
+        <v>3929200</v>
       </c>
       <c r="H26" s="3">
-        <v>1413300</v>
+        <v>3639700</v>
       </c>
       <c r="I26" s="3">
-        <v>-5702400</v>
+        <v>1350900</v>
       </c>
       <c r="J26" s="3">
+        <v>-5450600</v>
+      </c>
+      <c r="K26" s="3">
         <v>786500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4062600</v>
+        <v>2430200</v>
       </c>
       <c r="E27" s="3">
-        <v>3139900</v>
+        <v>3883200</v>
       </c>
       <c r="F27" s="3">
-        <v>3819600</v>
+        <v>3001300</v>
       </c>
       <c r="G27" s="3">
-        <v>3432200</v>
+        <v>3651000</v>
       </c>
       <c r="H27" s="3">
-        <v>1091600</v>
+        <v>3280700</v>
       </c>
       <c r="I27" s="3">
-        <v>-6283400</v>
+        <v>1043500</v>
       </c>
       <c r="J27" s="3">
+        <v>-6006000</v>
+      </c>
+      <c r="K27" s="3">
         <v>653800</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2197400</v>
+        <v>874000</v>
       </c>
       <c r="E32" s="3">
-        <v>2232600</v>
+        <v>2100400</v>
       </c>
       <c r="F32" s="3">
-        <v>-421400</v>
+        <v>2134000</v>
       </c>
       <c r="G32" s="3">
-        <v>272300</v>
+        <v>-402800</v>
       </c>
       <c r="H32" s="3">
-        <v>483600</v>
+        <v>260300</v>
       </c>
       <c r="I32" s="3">
-        <v>85700</v>
+        <v>462300</v>
       </c>
       <c r="J32" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4062600</v>
+        <v>2430200</v>
       </c>
       <c r="E33" s="3">
-        <v>3139900</v>
+        <v>3883200</v>
       </c>
       <c r="F33" s="3">
-        <v>3819600</v>
+        <v>3001300</v>
       </c>
       <c r="G33" s="3">
-        <v>3432200</v>
+        <v>3651000</v>
       </c>
       <c r="H33" s="3">
-        <v>1091600</v>
+        <v>3280700</v>
       </c>
       <c r="I33" s="3">
-        <v>-6283400</v>
+        <v>1043500</v>
       </c>
       <c r="J33" s="3">
+        <v>-6006000</v>
+      </c>
+      <c r="K33" s="3">
         <v>653800</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4062600</v>
+        <v>2430200</v>
       </c>
       <c r="E35" s="3">
-        <v>3139900</v>
+        <v>3883200</v>
       </c>
       <c r="F35" s="3">
-        <v>3819600</v>
+        <v>3001300</v>
       </c>
       <c r="G35" s="3">
-        <v>3432200</v>
+        <v>3651000</v>
       </c>
       <c r="H35" s="3">
-        <v>1091600</v>
+        <v>3280700</v>
       </c>
       <c r="I35" s="3">
-        <v>-6283400</v>
+        <v>1043500</v>
       </c>
       <c r="J35" s="3">
+        <v>-6006000</v>
+      </c>
+      <c r="K35" s="3">
         <v>653800</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3887700</v>
+        <v>4127800</v>
       </c>
       <c r="E41" s="3">
-        <v>9093500</v>
+        <v>3716000</v>
       </c>
       <c r="F41" s="3">
-        <v>8095800</v>
+        <v>8692100</v>
       </c>
       <c r="G41" s="3">
-        <v>8830600</v>
+        <v>7738400</v>
       </c>
       <c r="H41" s="3">
-        <v>9355300</v>
+        <v>8440700</v>
       </c>
       <c r="I41" s="3">
-        <v>4725800</v>
+        <v>8942300</v>
       </c>
       <c r="J41" s="3">
+        <v>4517100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4400600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="E42" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>4700</v>
+        <v>2200</v>
       </c>
       <c r="G42" s="3">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="H42" s="3">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="I42" s="3">
-        <v>2460300</v>
+        <v>5600</v>
       </c>
       <c r="J42" s="3">
+        <v>2351700</v>
+      </c>
+      <c r="K42" s="3">
         <v>5570900</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15229000</v>
+        <v>16750200</v>
       </c>
       <c r="E43" s="3">
-        <v>17236200</v>
+        <v>14556700</v>
       </c>
       <c r="F43" s="3">
-        <v>14157300</v>
+        <v>16475300</v>
       </c>
       <c r="G43" s="3">
-        <v>15459100</v>
+        <v>13532300</v>
       </c>
       <c r="H43" s="3">
-        <v>11922400</v>
+        <v>14776600</v>
       </c>
       <c r="I43" s="3">
-        <v>9660500</v>
+        <v>11396100</v>
       </c>
       <c r="J43" s="3">
+        <v>9234000</v>
+      </c>
+      <c r="K43" s="3">
         <v>15544800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2330000</v>
+        <v>2008400</v>
       </c>
       <c r="E44" s="3">
-        <v>1912100</v>
+        <v>2227200</v>
       </c>
       <c r="F44" s="3">
-        <v>2168000</v>
+        <v>1827700</v>
       </c>
       <c r="G44" s="3">
-        <v>1764200</v>
+        <v>2072300</v>
       </c>
       <c r="H44" s="3">
-        <v>1246600</v>
+        <v>1686400</v>
       </c>
       <c r="I44" s="3">
-        <v>1298200</v>
+        <v>1191600</v>
       </c>
       <c r="J44" s="3">
+        <v>1240900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2544800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2489700</v>
+        <v>1638100</v>
       </c>
       <c r="E45" s="3">
-        <v>3023700</v>
+        <v>2379700</v>
       </c>
       <c r="F45" s="3">
-        <v>13352100</v>
+        <v>2890200</v>
       </c>
       <c r="G45" s="3">
-        <v>8919800</v>
+        <v>12762600</v>
       </c>
       <c r="H45" s="3">
-        <v>3250300</v>
+        <v>8526000</v>
       </c>
       <c r="I45" s="3">
-        <v>1855800</v>
+        <v>3106800</v>
       </c>
       <c r="J45" s="3">
+        <v>1773900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2315900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23936300</v>
+        <v>24537900</v>
       </c>
       <c r="E46" s="3">
-        <v>31268000</v>
+        <v>22879600</v>
       </c>
       <c r="F46" s="3">
-        <v>37777900</v>
+        <v>29887600</v>
       </c>
       <c r="G46" s="3">
-        <v>34977200</v>
+        <v>36110100</v>
       </c>
       <c r="H46" s="3">
-        <v>25780400</v>
+        <v>33433100</v>
       </c>
       <c r="I46" s="3">
-        <v>17629500</v>
+        <v>24642300</v>
       </c>
       <c r="J46" s="3">
+        <v>16851200</v>
+      </c>
+      <c r="K46" s="3">
         <v>18622500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7473600</v>
+        <v>2424600</v>
       </c>
       <c r="E47" s="3">
-        <v>10107700</v>
+        <v>7143700</v>
       </c>
       <c r="F47" s="3">
-        <v>5108400</v>
+        <v>9661500</v>
       </c>
       <c r="G47" s="3">
-        <v>3405200</v>
+        <v>4882900</v>
       </c>
       <c r="H47" s="3">
-        <v>8837600</v>
+        <v>3254900</v>
       </c>
       <c r="I47" s="3">
-        <v>10126500</v>
+        <v>8447500</v>
       </c>
       <c r="J47" s="3">
+        <v>9679400</v>
+      </c>
+      <c r="K47" s="3">
         <v>10527900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55025900</v>
+        <v>56807500</v>
       </c>
       <c r="E48" s="3">
-        <v>54885000</v>
+        <v>52596600</v>
       </c>
       <c r="F48" s="3">
-        <v>52395400</v>
+        <v>52462000</v>
       </c>
       <c r="G48" s="3">
-        <v>46501700</v>
+        <v>50082300</v>
       </c>
       <c r="H48" s="3">
-        <v>43932200</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>44448800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>41992700</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>202972000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>73791600</v>
+        <v>72873300</v>
       </c>
       <c r="E49" s="3">
-        <v>71131700</v>
+        <v>70533900</v>
       </c>
       <c r="F49" s="3">
-        <v>66936500</v>
+        <v>67991500</v>
       </c>
       <c r="G49" s="3">
-        <v>60527500</v>
+        <v>63981500</v>
       </c>
       <c r="H49" s="3">
-        <v>53956500</v>
+        <v>57855400</v>
       </c>
       <c r="I49" s="3">
-        <v>81156000</v>
+        <v>51574500</v>
       </c>
       <c r="J49" s="3">
+        <v>77573300</v>
+      </c>
+      <c r="K49" s="3">
         <v>117761000</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5671800</v>
+        <v>6466000</v>
       </c>
       <c r="E52" s="3">
-        <v>6900800</v>
+        <v>5421500</v>
       </c>
       <c r="F52" s="3">
-        <v>6716500</v>
+        <v>6596200</v>
       </c>
       <c r="G52" s="3">
-        <v>6432500</v>
+        <v>6420000</v>
       </c>
       <c r="H52" s="3">
-        <v>6176600</v>
+        <v>6148500</v>
       </c>
       <c r="I52" s="3">
-        <v>7578100</v>
+        <v>5903900</v>
       </c>
       <c r="J52" s="3">
+        <v>7243600</v>
+      </c>
+      <c r="K52" s="3">
         <v>9460900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>165899000</v>
+        <v>163109000</v>
       </c>
       <c r="E54" s="3">
-        <v>174293000</v>
+        <v>158575000</v>
       </c>
       <c r="F54" s="3">
-        <v>168935000</v>
+        <v>166599000</v>
       </c>
       <c r="G54" s="3">
-        <v>151844000</v>
+        <v>161477000</v>
       </c>
       <c r="H54" s="3">
-        <v>138683000</v>
+        <v>145141000</v>
       </c>
       <c r="I54" s="3">
-        <v>126703000</v>
+        <v>132561000</v>
       </c>
       <c r="J54" s="3">
+        <v>121110000</v>
+      </c>
+      <c r="K54" s="3">
         <v>143787000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12834400</v>
+        <v>12004200</v>
       </c>
       <c r="E57" s="3">
-        <v>12193500</v>
+        <v>12267800</v>
       </c>
       <c r="F57" s="3">
-        <v>12955300</v>
+        <v>11655200</v>
       </c>
       <c r="G57" s="3">
-        <v>11305000</v>
+        <v>12383400</v>
       </c>
       <c r="H57" s="3">
-        <v>8487800</v>
+        <v>10805900</v>
       </c>
       <c r="I57" s="3">
-        <v>7530000</v>
+        <v>8113100</v>
       </c>
       <c r="J57" s="3">
+        <v>7197600</v>
+      </c>
+      <c r="K57" s="3">
         <v>15077600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7278800</v>
+        <v>8715600</v>
       </c>
       <c r="E58" s="3">
-        <v>12643100</v>
+        <v>6957500</v>
       </c>
       <c r="F58" s="3">
-        <v>14389700</v>
+        <v>12085000</v>
       </c>
       <c r="G58" s="3">
-        <v>9425700</v>
+        <v>13754500</v>
       </c>
       <c r="H58" s="3">
-        <v>6737700</v>
+        <v>9009600</v>
       </c>
       <c r="I58" s="3">
-        <v>8163800</v>
+        <v>6440200</v>
       </c>
       <c r="J58" s="3">
+        <v>7803400</v>
+      </c>
+      <c r="K58" s="3">
         <v>23990300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12009300</v>
+        <v>11979500</v>
       </c>
       <c r="E59" s="3">
-        <v>14047000</v>
+        <v>11479100</v>
       </c>
       <c r="F59" s="3">
-        <v>12033900</v>
+        <v>13426900</v>
       </c>
       <c r="G59" s="3">
-        <v>12368400</v>
+        <v>11502600</v>
       </c>
       <c r="H59" s="3">
-        <v>11180500</v>
+        <v>11822400</v>
       </c>
       <c r="I59" s="3">
-        <v>19353800</v>
+        <v>10687000</v>
       </c>
       <c r="J59" s="3">
+        <v>18499400</v>
+      </c>
+      <c r="K59" s="3">
         <v>17246800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32122500</v>
+        <v>32699300</v>
       </c>
       <c r="E60" s="3">
-        <v>38883600</v>
+        <v>30704400</v>
       </c>
       <c r="F60" s="3">
-        <v>39379000</v>
+        <v>37167000</v>
       </c>
       <c r="G60" s="3">
-        <v>33099100</v>
+        <v>37640500</v>
       </c>
       <c r="H60" s="3">
-        <v>26406000</v>
+        <v>31637900</v>
       </c>
       <c r="I60" s="3">
-        <v>26991800</v>
+        <v>25240300</v>
       </c>
       <c r="J60" s="3">
+        <v>25800200</v>
+      </c>
+      <c r="K60" s="3">
         <v>28423800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56718500</v>
+        <v>57190100</v>
       </c>
       <c r="E61" s="3">
-        <v>58422900</v>
+        <v>54214600</v>
       </c>
       <c r="F61" s="3">
-        <v>55393300</v>
+        <v>55843700</v>
       </c>
       <c r="G61" s="3">
-        <v>51624200</v>
+        <v>52947800</v>
       </c>
       <c r="H61" s="3">
-        <v>49604000</v>
+        <v>49345100</v>
       </c>
       <c r="I61" s="3">
-        <v>40559800</v>
+        <v>47414200</v>
       </c>
       <c r="J61" s="3">
+        <v>38769200</v>
+      </c>
+      <c r="K61" s="3">
         <v>44721000</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27206600</v>
+        <v>24484100</v>
       </c>
       <c r="E62" s="3">
-        <v>31390000</v>
+        <v>26005500</v>
       </c>
       <c r="F62" s="3">
-        <v>29381600</v>
+        <v>30004300</v>
       </c>
       <c r="G62" s="3">
-        <v>27133800</v>
+        <v>28084500</v>
       </c>
       <c r="H62" s="3">
-        <v>25037400</v>
+        <v>25935900</v>
       </c>
       <c r="I62" s="3">
-        <v>30083600</v>
+        <v>23932000</v>
       </c>
       <c r="J62" s="3">
+        <v>28755500</v>
+      </c>
+      <c r="K62" s="3">
         <v>30198600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>129825000</v>
+        <v>128432000</v>
       </c>
       <c r="E66" s="3">
-        <v>139895000</v>
+        <v>124093000</v>
       </c>
       <c r="F66" s="3">
-        <v>134425000</v>
+        <v>133719000</v>
       </c>
       <c r="G66" s="3">
-        <v>121986000</v>
+        <v>128490000</v>
       </c>
       <c r="H66" s="3">
-        <v>110654000</v>
+        <v>116601000</v>
       </c>
       <c r="I66" s="3">
-        <v>96268900</v>
+        <v>105769000</v>
       </c>
       <c r="J66" s="3">
+        <v>92018900</v>
+      </c>
+      <c r="K66" s="3">
         <v>102232000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41422600</v>
+        <v>-39523200</v>
       </c>
       <c r="E72" s="3">
-        <v>-42318200</v>
+        <v>-39593900</v>
       </c>
       <c r="F72" s="3">
-        <v>-41922600</v>
+        <v>-40450000</v>
       </c>
       <c r="G72" s="3">
-        <v>-43265500</v>
+        <v>-40071900</v>
       </c>
       <c r="H72" s="3">
-        <v>-42852300</v>
+        <v>-41355400</v>
       </c>
       <c r="I72" s="3">
-        <v>-80906000</v>
+        <v>-40960500</v>
       </c>
       <c r="J72" s="3">
+        <v>-77334300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-58425200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36074700</v>
+        <v>34677300</v>
       </c>
       <c r="E76" s="3">
-        <v>34398500</v>
+        <v>34482100</v>
       </c>
       <c r="F76" s="3">
-        <v>34510000</v>
+        <v>32879900</v>
       </c>
       <c r="G76" s="3">
-        <v>29858200</v>
+        <v>32986500</v>
       </c>
       <c r="H76" s="3">
-        <v>28029400</v>
+        <v>28540100</v>
       </c>
       <c r="I76" s="3">
-        <v>30434500</v>
+        <v>26792000</v>
       </c>
       <c r="J76" s="3">
+        <v>29091000</v>
+      </c>
+      <c r="K76" s="3">
         <v>41555200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4062600</v>
+        <v>2430200</v>
       </c>
       <c r="E81" s="3">
-        <v>3139900</v>
+        <v>3883200</v>
       </c>
       <c r="F81" s="3">
-        <v>3819600</v>
+        <v>3001300</v>
       </c>
       <c r="G81" s="3">
-        <v>3432200</v>
+        <v>3651000</v>
       </c>
       <c r="H81" s="3">
-        <v>1091600</v>
+        <v>3280700</v>
       </c>
       <c r="I81" s="3">
-        <v>-6283400</v>
+        <v>1043500</v>
       </c>
       <c r="J81" s="3">
+        <v>-6006000</v>
+      </c>
+      <c r="K81" s="3">
         <v>653800</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17121200</v>
+        <v>15523900</v>
       </c>
       <c r="E83" s="3">
-        <v>15705600</v>
+        <v>16365300</v>
       </c>
       <c r="F83" s="3">
-        <v>13334500</v>
+        <v>15012200</v>
       </c>
       <c r="G83" s="3">
-        <v>12411900</v>
+        <v>12745800</v>
       </c>
       <c r="H83" s="3">
-        <v>12799200</v>
+        <v>11863900</v>
       </c>
       <c r="I83" s="3">
-        <v>25773300</v>
+        <v>12234200</v>
       </c>
       <c r="J83" s="3">
+        <v>24635500</v>
+      </c>
+      <c r="K83" s="3">
         <v>16945100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20188400</v>
+        <v>20128500</v>
       </c>
       <c r="E89" s="3">
-        <v>18229300</v>
+        <v>19297100</v>
       </c>
       <c r="F89" s="3">
-        <v>17604800</v>
+        <v>17424500</v>
       </c>
       <c r="G89" s="3">
-        <v>15758400</v>
+        <v>16827600</v>
       </c>
       <c r="H89" s="3">
-        <v>15241900</v>
+        <v>15062700</v>
       </c>
       <c r="I89" s="3">
-        <v>15936800</v>
+        <v>14569000</v>
       </c>
       <c r="J89" s="3">
+        <v>15233300</v>
+      </c>
+      <c r="K89" s="3">
         <v>19032200</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22882300</v>
+        <v>-10253900</v>
       </c>
       <c r="E91" s="3">
-        <v>-16010800</v>
+        <v>-10265100</v>
       </c>
       <c r="F91" s="3">
-        <v>-17152900</v>
+        <v>-9017400</v>
       </c>
       <c r="G91" s="3">
-        <v>-13902600</v>
+        <v>-9163300</v>
       </c>
       <c r="H91" s="3">
-        <v>-12991700</v>
+        <v>-8062600</v>
       </c>
       <c r="I91" s="3">
-        <v>-9897600</v>
+        <v>-7371500</v>
       </c>
       <c r="J91" s="3">
+        <v>-6306700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9867000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19736400</v>
+        <v>-16041100</v>
       </c>
       <c r="E94" s="3">
-        <v>-15973200</v>
+        <v>-18865100</v>
       </c>
       <c r="F94" s="3">
-        <v>-17624800</v>
+        <v>-15268000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12631400</v>
+        <v>-16846700</v>
       </c>
       <c r="H94" s="3">
-        <v>-11616000</v>
+        <v>-12073700</v>
       </c>
       <c r="I94" s="3">
-        <v>-7830500</v>
+        <v>-11103200</v>
       </c>
       <c r="J94" s="3">
+        <v>-7484800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10887100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1830000</v>
+        <v>-3651000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1873400</v>
+        <v>-1749200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1474300</v>
+        <v>-1790700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1514200</v>
+        <v>-1409200</v>
       </c>
       <c r="H96" s="3">
-        <v>-2632900</v>
+        <v>-1447400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3991000</v>
+        <v>-2516600</v>
       </c>
       <c r="J96" s="3">
+        <v>-3814800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4133000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5392500</v>
+        <v>-3656600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1551800</v>
+        <v>-5154400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1028300</v>
+        <v>-1483300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4030900</v>
+        <v>-982900</v>
       </c>
       <c r="H100" s="3">
-        <v>1199600</v>
+        <v>-3852900</v>
       </c>
       <c r="I100" s="3">
-        <v>-7748300</v>
+        <v>1146700</v>
       </c>
       <c r="J100" s="3">
+        <v>-7406300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6993600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-265300</v>
+        <v>-19100</v>
       </c>
       <c r="E101" s="3">
-        <v>293500</v>
+        <v>-253600</v>
       </c>
       <c r="F101" s="3">
-        <v>313400</v>
+        <v>280500</v>
       </c>
       <c r="G101" s="3">
-        <v>379100</v>
+        <v>299600</v>
       </c>
       <c r="H101" s="3">
-        <v>-196000</v>
+        <v>362400</v>
       </c>
       <c r="I101" s="3">
-        <v>-32900</v>
+        <v>-187400</v>
       </c>
       <c r="J101" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-47000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5205800</v>
+        <v>411800</v>
       </c>
       <c r="E102" s="3">
-        <v>997700</v>
+        <v>-4976000</v>
       </c>
       <c r="F102" s="3">
-        <v>-734800</v>
+        <v>953700</v>
       </c>
       <c r="G102" s="3">
-        <v>-524700</v>
+        <v>-702400</v>
       </c>
       <c r="H102" s="3">
-        <v>4629500</v>
+        <v>-501500</v>
       </c>
       <c r="I102" s="3">
-        <v>325100</v>
+        <v>4425100</v>
       </c>
       <c r="J102" s="3">
+        <v>310800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1104600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/DTEGY_YR_FIN.xlsx
+++ b/Financials/Yearly/DTEGY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6903F7F-AFBB-4322-85AA-F93D1B1BD9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DTEGY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>84885300</v>
+        <v>83070300</v>
       </c>
       <c r="E8" s="3">
-        <v>84089800</v>
+        <v>82291800</v>
       </c>
       <c r="F8" s="3">
-        <v>82011900</v>
+        <v>80258300</v>
       </c>
       <c r="G8" s="3">
-        <v>77673100</v>
+        <v>76012300</v>
       </c>
       <c r="H8" s="3">
-        <v>70301600</v>
+        <v>68798500</v>
       </c>
       <c r="I8" s="3">
-        <v>67467500</v>
+        <v>66024900</v>
       </c>
       <c r="J8" s="3">
-        <v>65265000</v>
+        <v>63869600</v>
       </c>
       <c r="K8" s="3">
         <v>68847500</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40101000</v>
+        <v>39243600</v>
       </c>
       <c r="E9" s="3">
-        <v>40221100</v>
+        <v>39361100</v>
       </c>
       <c r="F9" s="3">
-        <v>39251700</v>
+        <v>38412400</v>
       </c>
       <c r="G9" s="3">
-        <v>47095500</v>
+        <v>46088600</v>
       </c>
       <c r="H9" s="3">
-        <v>43240400</v>
+        <v>42315800</v>
       </c>
       <c r="I9" s="3">
-        <v>40677700</v>
+        <v>39808000</v>
       </c>
       <c r="J9" s="3">
-        <v>38434900</v>
+        <v>37613100</v>
       </c>
       <c r="K9" s="3">
         <v>39774600</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44784200</v>
+        <v>43826700</v>
       </c>
       <c r="E10" s="3">
-        <v>43868700</v>
+        <v>42930700</v>
       </c>
       <c r="F10" s="3">
-        <v>42760200</v>
+        <v>41845900</v>
       </c>
       <c r="G10" s="3">
-        <v>30577600</v>
+        <v>29923800</v>
       </c>
       <c r="H10" s="3">
-        <v>27061300</v>
+        <v>26482700</v>
       </c>
       <c r="I10" s="3">
-        <v>26789800</v>
+        <v>26216900</v>
       </c>
       <c r="J10" s="3">
-        <v>26830100</v>
+        <v>26256500</v>
       </c>
       <c r="K10" s="3">
         <v>29072900</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +813,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +843,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,48 +873,48 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1350900</v>
+        <v>1322000</v>
       </c>
       <c r="E14" s="3">
-        <v>550900</v>
+        <v>539100</v>
       </c>
       <c r="F14" s="3">
-        <v>757300</v>
+        <v>741200</v>
       </c>
       <c r="G14" s="3">
-        <v>166100</v>
+        <v>162500</v>
       </c>
       <c r="H14" s="3">
-        <v>133500</v>
+        <v>130700</v>
       </c>
       <c r="I14" s="3">
-        <v>917800</v>
+        <v>898200</v>
       </c>
       <c r="J14" s="3">
-        <v>24730900</v>
+        <v>24202100</v>
       </c>
       <c r="K14" s="3">
         <v>3917000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14712700</v>
+        <v>14398100</v>
       </c>
       <c r="E15" s="3">
-        <v>13946300</v>
+        <v>13648100</v>
       </c>
       <c r="F15" s="3">
-        <v>14235800</v>
+        <v>13931400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -968,7 +933,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>75880200</v>
+        <v>74257700</v>
       </c>
       <c r="E17" s="3">
-        <v>73562200</v>
+        <v>71989300</v>
       </c>
       <c r="F17" s="3">
-        <v>71729900</v>
+        <v>70196200</v>
       </c>
       <c r="G17" s="3">
-        <v>69787800</v>
+        <v>68295600</v>
       </c>
       <c r="H17" s="3">
-        <v>62170600</v>
+        <v>60841300</v>
       </c>
       <c r="I17" s="3">
-        <v>61936100</v>
+        <v>60611800</v>
       </c>
       <c r="J17" s="3">
-        <v>69710400</v>
+        <v>68219800</v>
       </c>
       <c r="K17" s="3">
         <v>62290600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9005100</v>
+        <v>8812500</v>
       </c>
       <c r="E18" s="3">
-        <v>10527600</v>
+        <v>10302500</v>
       </c>
       <c r="F18" s="3">
-        <v>10281900</v>
+        <v>10062100</v>
       </c>
       <c r="G18" s="3">
-        <v>7885300</v>
+        <v>7716700</v>
       </c>
       <c r="H18" s="3">
-        <v>8131100</v>
+        <v>7957200</v>
       </c>
       <c r="I18" s="3">
-        <v>5531400</v>
+        <v>5413100</v>
       </c>
       <c r="J18" s="3">
-        <v>-4445300</v>
+        <v>-4350300</v>
       </c>
       <c r="K18" s="3">
         <v>6556900</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-874000</v>
+        <v>-855300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100400</v>
+        <v>-2055500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2134000</v>
+        <v>-2088400</v>
       </c>
       <c r="G20" s="3">
-        <v>402800</v>
+        <v>394200</v>
       </c>
       <c r="H20" s="3">
-        <v>-260300</v>
+        <v>-254700</v>
       </c>
       <c r="I20" s="3">
-        <v>-462300</v>
+        <v>-452400</v>
       </c>
       <c r="J20" s="3">
-        <v>-81900</v>
+        <v>-80200</v>
       </c>
       <c r="K20" s="3">
         <v>30500</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>23692300</v>
+        <v>23172700</v>
       </c>
       <c r="E21" s="3">
-        <v>24832000</v>
+        <v>24287300</v>
       </c>
       <c r="F21" s="3">
-        <v>23196200</v>
+        <v>22687700</v>
       </c>
       <c r="G21" s="3">
-        <v>21064600</v>
+        <v>20603500</v>
       </c>
       <c r="H21" s="3">
-        <v>19763200</v>
+        <v>19330700</v>
       </c>
       <c r="I21" s="3">
-        <v>17332800</v>
+        <v>16951900</v>
       </c>
       <c r="J21" s="3">
-        <v>20167600</v>
+        <v>19715700</v>
       </c>
       <c r="K21" s="3">
         <v>23544100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2349400</v>
+        <v>2299200</v>
       </c>
       <c r="E22" s="3">
-        <v>2824000</v>
+        <v>2763700</v>
       </c>
       <c r="F22" s="3">
-        <v>3046200</v>
+        <v>2981100</v>
       </c>
       <c r="G22" s="3">
-        <v>2927300</v>
+        <v>2864700</v>
       </c>
       <c r="H22" s="3">
-        <v>2990100</v>
+        <v>2926200</v>
       </c>
       <c r="I22" s="3">
-        <v>2681600</v>
+        <v>2624200</v>
       </c>
       <c r="J22" s="3">
-        <v>2624300</v>
+        <v>2568200</v>
       </c>
       <c r="K22" s="3">
         <v>3043700</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5781600</v>
+        <v>5658000</v>
       </c>
       <c r="E23" s="3">
-        <v>5603200</v>
+        <v>5483400</v>
       </c>
       <c r="F23" s="3">
-        <v>5101700</v>
+        <v>4992600</v>
       </c>
       <c r="G23" s="3">
-        <v>5360900</v>
+        <v>5246200</v>
       </c>
       <c r="H23" s="3">
-        <v>4880700</v>
+        <v>4776300</v>
       </c>
       <c r="I23" s="3">
-        <v>2387600</v>
+        <v>2336500</v>
       </c>
       <c r="J23" s="3">
-        <v>-7151600</v>
+        <v>-6998700</v>
       </c>
       <c r="K23" s="3">
         <v>3543700</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2046500</v>
+        <v>2002800</v>
       </c>
       <c r="E24" s="3">
-        <v>-626100</v>
+        <v>-612700</v>
       </c>
       <c r="F24" s="3">
-        <v>1619000</v>
+        <v>1584400</v>
       </c>
       <c r="G24" s="3">
-        <v>1431700</v>
+        <v>1401000</v>
       </c>
       <c r="H24" s="3">
-        <v>1240900</v>
+        <v>1214400</v>
       </c>
       <c r="I24" s="3">
-        <v>1036700</v>
+        <v>1014600</v>
       </c>
       <c r="J24" s="3">
-        <v>-1700900</v>
+        <v>-1664600</v>
       </c>
       <c r="K24" s="3">
         <v>2757300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3735100</v>
+        <v>3655200</v>
       </c>
       <c r="E26" s="3">
-        <v>6229300</v>
+        <v>6096100</v>
       </c>
       <c r="F26" s="3">
-        <v>3482700</v>
+        <v>3408200</v>
       </c>
       <c r="G26" s="3">
-        <v>3929200</v>
+        <v>3845200</v>
       </c>
       <c r="H26" s="3">
-        <v>3639700</v>
+        <v>3561900</v>
       </c>
       <c r="I26" s="3">
-        <v>1350900</v>
+        <v>1322000</v>
       </c>
       <c r="J26" s="3">
-        <v>-5450600</v>
+        <v>-5334100</v>
       </c>
       <c r="K26" s="3">
         <v>786500</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2430200</v>
+        <v>2378300</v>
       </c>
       <c r="E27" s="3">
-        <v>3883200</v>
+        <v>3800200</v>
       </c>
       <c r="F27" s="3">
-        <v>3001300</v>
+        <v>2937200</v>
       </c>
       <c r="G27" s="3">
-        <v>3651000</v>
+        <v>3572900</v>
       </c>
       <c r="H27" s="3">
-        <v>3280700</v>
+        <v>3210600</v>
       </c>
       <c r="I27" s="3">
-        <v>1043500</v>
+        <v>1021100</v>
       </c>
       <c r="J27" s="3">
-        <v>-6006000</v>
+        <v>-5877600</v>
       </c>
       <c r="K27" s="3">
         <v>653800</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>874000</v>
+        <v>855300</v>
       </c>
       <c r="E32" s="3">
-        <v>2100400</v>
+        <v>2055500</v>
       </c>
       <c r="F32" s="3">
-        <v>2134000</v>
+        <v>2088400</v>
       </c>
       <c r="G32" s="3">
-        <v>-402800</v>
+        <v>-394200</v>
       </c>
       <c r="H32" s="3">
-        <v>260300</v>
+        <v>254700</v>
       </c>
       <c r="I32" s="3">
-        <v>462300</v>
+        <v>452400</v>
       </c>
       <c r="J32" s="3">
-        <v>81900</v>
+        <v>80200</v>
       </c>
       <c r="K32" s="3">
         <v>-30500</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2430200</v>
+        <v>2378300</v>
       </c>
       <c r="E33" s="3">
-        <v>3883200</v>
+        <v>3800200</v>
       </c>
       <c r="F33" s="3">
-        <v>3001300</v>
+        <v>2937200</v>
       </c>
       <c r="G33" s="3">
-        <v>3651000</v>
+        <v>3572900</v>
       </c>
       <c r="H33" s="3">
-        <v>3280700</v>
+        <v>3210600</v>
       </c>
       <c r="I33" s="3">
-        <v>1043500</v>
+        <v>1021100</v>
       </c>
       <c r="J33" s="3">
-        <v>-6006000</v>
+        <v>-5877600</v>
       </c>
       <c r="K33" s="3">
         <v>653800</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2430200</v>
+        <v>2378300</v>
       </c>
       <c r="E35" s="3">
-        <v>3883200</v>
+        <v>3800200</v>
       </c>
       <c r="F35" s="3">
-        <v>3001300</v>
+        <v>2937200</v>
       </c>
       <c r="G35" s="3">
-        <v>3651000</v>
+        <v>3572900</v>
       </c>
       <c r="H35" s="3">
-        <v>3280700</v>
+        <v>3210600</v>
       </c>
       <c r="I35" s="3">
-        <v>1043500</v>
+        <v>1021100</v>
       </c>
       <c r="J35" s="3">
-        <v>-6006000</v>
+        <v>-5877600</v>
       </c>
       <c r="K35" s="3">
         <v>653800</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,42 +1561,42 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4127800</v>
+        <v>4039500</v>
       </c>
       <c r="E41" s="3">
-        <v>3716000</v>
+        <v>3636600</v>
       </c>
       <c r="F41" s="3">
-        <v>8692100</v>
+        <v>8506200</v>
       </c>
       <c r="G41" s="3">
-        <v>7738400</v>
+        <v>7572900</v>
       </c>
       <c r="H41" s="3">
-        <v>8440700</v>
+        <v>8260300</v>
       </c>
       <c r="I41" s="3">
-        <v>8942300</v>
+        <v>8751100</v>
       </c>
       <c r="J41" s="3">
-        <v>4517100</v>
+        <v>4420500</v>
       </c>
       <c r="K41" s="3">
         <v>4400600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1640,193 +1605,193 @@
         <v>2200</v>
       </c>
       <c r="G42" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H42" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I42" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J42" s="3">
-        <v>2351700</v>
+        <v>2301400</v>
       </c>
       <c r="K42" s="3">
         <v>5570900</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16750200</v>
+        <v>16392000</v>
       </c>
       <c r="E43" s="3">
-        <v>14556700</v>
+        <v>14245500</v>
       </c>
       <c r="F43" s="3">
-        <v>16475300</v>
+        <v>16123000</v>
       </c>
       <c r="G43" s="3">
-        <v>13532300</v>
+        <v>13243000</v>
       </c>
       <c r="H43" s="3">
-        <v>14776600</v>
+        <v>14460700</v>
       </c>
       <c r="I43" s="3">
-        <v>11396100</v>
+        <v>11152400</v>
       </c>
       <c r="J43" s="3">
-        <v>9234000</v>
+        <v>9036500</v>
       </c>
       <c r="K43" s="3">
         <v>15544800</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2008400</v>
+        <v>1965400</v>
       </c>
       <c r="E44" s="3">
-        <v>2227200</v>
+        <v>2179500</v>
       </c>
       <c r="F44" s="3">
-        <v>1827700</v>
+        <v>1788600</v>
       </c>
       <c r="G44" s="3">
-        <v>2072300</v>
+        <v>2028000</v>
       </c>
       <c r="H44" s="3">
-        <v>1686400</v>
+        <v>1650300</v>
       </c>
       <c r="I44" s="3">
-        <v>1191600</v>
+        <v>1166100</v>
       </c>
       <c r="J44" s="3">
-        <v>1240900</v>
+        <v>1214400</v>
       </c>
       <c r="K44" s="3">
         <v>2544800</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1638100</v>
+        <v>1603100</v>
       </c>
       <c r="E45" s="3">
-        <v>2379700</v>
+        <v>2328900</v>
       </c>
       <c r="F45" s="3">
-        <v>2890200</v>
+        <v>2828400</v>
       </c>
       <c r="G45" s="3">
-        <v>12762600</v>
+        <v>12489800</v>
       </c>
       <c r="H45" s="3">
-        <v>8526000</v>
+        <v>8343700</v>
       </c>
       <c r="I45" s="3">
-        <v>3106800</v>
+        <v>3040400</v>
       </c>
       <c r="J45" s="3">
-        <v>1773900</v>
+        <v>1735900</v>
       </c>
       <c r="K45" s="3">
         <v>2315900</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24537900</v>
+        <v>24013300</v>
       </c>
       <c r="E46" s="3">
-        <v>22879600</v>
+        <v>22390400</v>
       </c>
       <c r="F46" s="3">
-        <v>29887600</v>
+        <v>29248500</v>
       </c>
       <c r="G46" s="3">
-        <v>36110100</v>
+        <v>35338000</v>
       </c>
       <c r="H46" s="3">
-        <v>33433100</v>
+        <v>32718200</v>
       </c>
       <c r="I46" s="3">
-        <v>24642300</v>
+        <v>24115400</v>
       </c>
       <c r="J46" s="3">
-        <v>16851200</v>
+        <v>16490900</v>
       </c>
       <c r="K46" s="3">
         <v>18622500</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2424600</v>
+        <v>2372800</v>
       </c>
       <c r="E47" s="3">
-        <v>7143700</v>
+        <v>6991000</v>
       </c>
       <c r="F47" s="3">
-        <v>9661500</v>
+        <v>9454900</v>
       </c>
       <c r="G47" s="3">
-        <v>4882900</v>
+        <v>4778500</v>
       </c>
       <c r="H47" s="3">
-        <v>3254900</v>
+        <v>3185300</v>
       </c>
       <c r="I47" s="3">
-        <v>8447500</v>
+        <v>8266800</v>
       </c>
       <c r="J47" s="3">
-        <v>9679400</v>
+        <v>9472400</v>
       </c>
       <c r="K47" s="3">
         <v>10527900</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56807500</v>
+        <v>55592800</v>
       </c>
       <c r="E48" s="3">
-        <v>52596600</v>
+        <v>51472000</v>
       </c>
       <c r="F48" s="3">
-        <v>52462000</v>
+        <v>51340300</v>
       </c>
       <c r="G48" s="3">
-        <v>50082300</v>
+        <v>49011400</v>
       </c>
       <c r="H48" s="3">
-        <v>44448800</v>
+        <v>43498400</v>
       </c>
       <c r="I48" s="3">
-        <v>41992700</v>
+        <v>41094800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
@@ -1836,37 +1801,37 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72873300</v>
+        <v>71315100</v>
       </c>
       <c r="E49" s="3">
-        <v>70533900</v>
+        <v>69025800</v>
       </c>
       <c r="F49" s="3">
-        <v>67991500</v>
+        <v>66537700</v>
       </c>
       <c r="G49" s="3">
-        <v>63981500</v>
+        <v>62613500</v>
       </c>
       <c r="H49" s="3">
-        <v>57855400</v>
+        <v>56618400</v>
       </c>
       <c r="I49" s="3">
-        <v>51574500</v>
+        <v>50471800</v>
       </c>
       <c r="J49" s="3">
-        <v>77573300</v>
+        <v>75914600</v>
       </c>
       <c r="K49" s="3">
         <v>117761000</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6466000</v>
+        <v>6327800</v>
       </c>
       <c r="E52" s="3">
-        <v>5421500</v>
+        <v>5305500</v>
       </c>
       <c r="F52" s="3">
-        <v>6596200</v>
+        <v>6455100</v>
       </c>
       <c r="G52" s="3">
-        <v>6420000</v>
+        <v>6282800</v>
       </c>
       <c r="H52" s="3">
-        <v>6148500</v>
+        <v>6017000</v>
       </c>
       <c r="I52" s="3">
-        <v>5903900</v>
+        <v>5777700</v>
       </c>
       <c r="J52" s="3">
-        <v>7243600</v>
+        <v>7088700</v>
       </c>
       <c r="K52" s="3">
         <v>9460900</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163109000</v>
+        <v>159622000</v>
       </c>
       <c r="E54" s="3">
-        <v>158575000</v>
+        <v>155185000</v>
       </c>
       <c r="F54" s="3">
-        <v>166599000</v>
+        <v>163037000</v>
       </c>
       <c r="G54" s="3">
-        <v>161477000</v>
+        <v>158024000</v>
       </c>
       <c r="H54" s="3">
-        <v>145141000</v>
+        <v>142037000</v>
       </c>
       <c r="I54" s="3">
-        <v>132561000</v>
+        <v>129727000</v>
       </c>
       <c r="J54" s="3">
-        <v>121110000</v>
+        <v>118520000</v>
       </c>
       <c r="K54" s="3">
         <v>143787000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12004200</v>
+        <v>11747500</v>
       </c>
       <c r="E57" s="3">
-        <v>12267800</v>
+        <v>12005500</v>
       </c>
       <c r="F57" s="3">
-        <v>11655200</v>
+        <v>11406000</v>
       </c>
       <c r="G57" s="3">
-        <v>12383400</v>
+        <v>12118600</v>
       </c>
       <c r="H57" s="3">
-        <v>10805900</v>
+        <v>10574800</v>
       </c>
       <c r="I57" s="3">
-        <v>8113100</v>
+        <v>7939600</v>
       </c>
       <c r="J57" s="3">
-        <v>7197600</v>
+        <v>7043700</v>
       </c>
       <c r="K57" s="3">
         <v>15077600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8715600</v>
+        <v>9461500</v>
       </c>
       <c r="E58" s="3">
-        <v>6957500</v>
+        <v>7633300</v>
       </c>
       <c r="F58" s="3">
-        <v>12085000</v>
+        <v>12468900</v>
       </c>
       <c r="G58" s="3">
-        <v>13754500</v>
+        <v>13801900</v>
       </c>
       <c r="H58" s="3">
-        <v>9009600</v>
+        <v>9014600</v>
       </c>
       <c r="I58" s="3">
-        <v>6440200</v>
+        <v>6480400</v>
       </c>
       <c r="J58" s="3">
-        <v>7803400</v>
+        <v>8352500</v>
       </c>
       <c r="K58" s="3">
         <v>23990300</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11979500</v>
+        <v>10791100</v>
       </c>
       <c r="E59" s="3">
-        <v>11479100</v>
+        <v>10409000</v>
       </c>
       <c r="F59" s="3">
-        <v>13426900</v>
+        <v>12497400</v>
       </c>
       <c r="G59" s="3">
-        <v>11502600</v>
+        <v>10915200</v>
       </c>
       <c r="H59" s="3">
-        <v>11822400</v>
+        <v>11372000</v>
       </c>
       <c r="I59" s="3">
-        <v>10687000</v>
+        <v>10280600</v>
       </c>
       <c r="J59" s="3">
-        <v>18499400</v>
+        <v>17387900</v>
       </c>
       <c r="K59" s="3">
         <v>17246800</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32699300</v>
+        <v>32000100</v>
       </c>
       <c r="E60" s="3">
-        <v>30704400</v>
+        <v>30047900</v>
       </c>
       <c r="F60" s="3">
-        <v>37167000</v>
+        <v>36372300</v>
       </c>
       <c r="G60" s="3">
-        <v>37640500</v>
+        <v>36835700</v>
       </c>
       <c r="H60" s="3">
-        <v>31637900</v>
+        <v>30961400</v>
       </c>
       <c r="I60" s="3">
-        <v>25240300</v>
+        <v>24700600</v>
       </c>
       <c r="J60" s="3">
-        <v>25800200</v>
+        <v>25248500</v>
       </c>
       <c r="K60" s="3">
         <v>28423800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57190100</v>
+        <v>55967300</v>
       </c>
       <c r="E61" s="3">
-        <v>54214600</v>
+        <v>53055400</v>
       </c>
       <c r="F61" s="3">
-        <v>55843700</v>
+        <v>54649700</v>
       </c>
       <c r="G61" s="3">
-        <v>52947800</v>
+        <v>51815700</v>
       </c>
       <c r="H61" s="3">
-        <v>49345100</v>
+        <v>48290000</v>
       </c>
       <c r="I61" s="3">
-        <v>47414200</v>
+        <v>46400400</v>
       </c>
       <c r="J61" s="3">
-        <v>38769200</v>
+        <v>37940300</v>
       </c>
       <c r="K61" s="3">
         <v>44721000</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24484100</v>
+        <v>23960600</v>
       </c>
       <c r="E62" s="3">
-        <v>26005500</v>
+        <v>25449400</v>
       </c>
       <c r="F62" s="3">
-        <v>30004300</v>
+        <v>29362700</v>
       </c>
       <c r="G62" s="3">
-        <v>28084500</v>
+        <v>27484000</v>
       </c>
       <c r="H62" s="3">
-        <v>25935900</v>
+        <v>25381400</v>
       </c>
       <c r="I62" s="3">
-        <v>23932000</v>
+        <v>23420300</v>
       </c>
       <c r="J62" s="3">
-        <v>28755500</v>
+        <v>28140600</v>
       </c>
       <c r="K62" s="3">
         <v>30198600</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>128432000</v>
+        <v>125686000</v>
       </c>
       <c r="E66" s="3">
-        <v>124093000</v>
+        <v>121440000</v>
       </c>
       <c r="F66" s="3">
-        <v>133719000</v>
+        <v>130860000</v>
       </c>
       <c r="G66" s="3">
-        <v>128490000</v>
+        <v>125743000</v>
       </c>
       <c r="H66" s="3">
-        <v>116601000</v>
+        <v>114108000</v>
       </c>
       <c r="I66" s="3">
-        <v>105769000</v>
+        <v>103507000</v>
       </c>
       <c r="J66" s="3">
-        <v>92018900</v>
+        <v>90051400</v>
       </c>
       <c r="K66" s="3">
         <v>102232000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39523200</v>
+        <v>-38678100</v>
       </c>
       <c r="E72" s="3">
-        <v>-39593900</v>
+        <v>-38747300</v>
       </c>
       <c r="F72" s="3">
-        <v>-40450000</v>
+        <v>-39585100</v>
       </c>
       <c r="G72" s="3">
-        <v>-40071900</v>
+        <v>-39215100</v>
       </c>
       <c r="H72" s="3">
-        <v>-41355400</v>
+        <v>-40471200</v>
       </c>
       <c r="I72" s="3">
-        <v>-40960500</v>
+        <v>-40084700</v>
       </c>
       <c r="J72" s="3">
-        <v>-77334300</v>
+        <v>-75680700</v>
       </c>
       <c r="K72" s="3">
         <v>-58425200</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34677300</v>
+        <v>33935900</v>
       </c>
       <c r="E76" s="3">
-        <v>34482100</v>
+        <v>33744800</v>
       </c>
       <c r="F76" s="3">
-        <v>32879900</v>
+        <v>32176900</v>
       </c>
       <c r="G76" s="3">
-        <v>32986500</v>
+        <v>32281200</v>
       </c>
       <c r="H76" s="3">
-        <v>28540100</v>
+        <v>27929800</v>
       </c>
       <c r="I76" s="3">
-        <v>26792000</v>
+        <v>26219100</v>
       </c>
       <c r="J76" s="3">
-        <v>29091000</v>
+        <v>28468900</v>
       </c>
       <c r="K76" s="3">
         <v>41555200</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2430200</v>
+        <v>2378300</v>
       </c>
       <c r="E81" s="3">
-        <v>3883200</v>
+        <v>3800200</v>
       </c>
       <c r="F81" s="3">
-        <v>3001300</v>
+        <v>2937200</v>
       </c>
       <c r="G81" s="3">
-        <v>3651000</v>
+        <v>3572900</v>
       </c>
       <c r="H81" s="3">
-        <v>3280700</v>
+        <v>3210600</v>
       </c>
       <c r="I81" s="3">
-        <v>1043500</v>
+        <v>1021100</v>
       </c>
       <c r="J81" s="3">
-        <v>-6006000</v>
+        <v>-5877600</v>
       </c>
       <c r="K81" s="3">
         <v>653800</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15523900</v>
+        <v>15191900</v>
       </c>
       <c r="E83" s="3">
-        <v>16365300</v>
+        <v>16015400</v>
       </c>
       <c r="F83" s="3">
-        <v>15012200</v>
+        <v>14691200</v>
       </c>
       <c r="G83" s="3">
-        <v>12745800</v>
+        <v>12473300</v>
       </c>
       <c r="H83" s="3">
-        <v>11863900</v>
+        <v>11610300</v>
       </c>
       <c r="I83" s="3">
-        <v>12234200</v>
+        <v>11972600</v>
       </c>
       <c r="J83" s="3">
-        <v>24635500</v>
+        <v>24108800</v>
       </c>
       <c r="K83" s="3">
         <v>16945100</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20128500</v>
+        <v>19698100</v>
       </c>
       <c r="E89" s="3">
-        <v>19297100</v>
+        <v>18884500</v>
       </c>
       <c r="F89" s="3">
-        <v>17424500</v>
+        <v>17051900</v>
       </c>
       <c r="G89" s="3">
-        <v>16827600</v>
+        <v>16467800</v>
       </c>
       <c r="H89" s="3">
-        <v>15062700</v>
+        <v>14740700</v>
       </c>
       <c r="I89" s="3">
-        <v>14569000</v>
+        <v>14257500</v>
       </c>
       <c r="J89" s="3">
-        <v>15233300</v>
+        <v>14907500</v>
       </c>
       <c r="K89" s="3">
         <v>19032200</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10253900</v>
+        <v>-10034600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10265100</v>
+        <v>-10045600</v>
       </c>
       <c r="F91" s="3">
-        <v>-9017400</v>
+        <v>-8824600</v>
       </c>
       <c r="G91" s="3">
-        <v>-9163300</v>
+        <v>-8967400</v>
       </c>
       <c r="H91" s="3">
-        <v>-8062600</v>
+        <v>-7890200</v>
       </c>
       <c r="I91" s="3">
-        <v>-7371500</v>
+        <v>-7213900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6306700</v>
+        <v>-6171900</v>
       </c>
       <c r="K91" s="3">
         <v>-9867000</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16041100</v>
+        <v>-15698100</v>
       </c>
       <c r="E94" s="3">
-        <v>-18865100</v>
+        <v>-18461800</v>
       </c>
       <c r="F94" s="3">
-        <v>-15268000</v>
+        <v>-14941600</v>
       </c>
       <c r="G94" s="3">
-        <v>-16846700</v>
+        <v>-16486500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12073700</v>
+        <v>-11815600</v>
       </c>
       <c r="I94" s="3">
-        <v>-11103200</v>
+        <v>-10865800</v>
       </c>
       <c r="J94" s="3">
-        <v>-7484800</v>
+        <v>-7324800</v>
       </c>
       <c r="K94" s="3">
         <v>-10887100</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3651000</v>
+        <v>-3572900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1749200</v>
+        <v>-1711800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1790700</v>
+        <v>-1752400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1409200</v>
+        <v>-1379100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1447400</v>
+        <v>-1416400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2516600</v>
+        <v>-2462800</v>
       </c>
       <c r="J96" s="3">
-        <v>-3814800</v>
+        <v>-3733200</v>
       </c>
       <c r="K96" s="3">
         <v>-4133000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3656600</v>
+        <v>-3578400</v>
       </c>
       <c r="E100" s="3">
-        <v>-5154400</v>
+        <v>-5044200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1483300</v>
+        <v>-1451600</v>
       </c>
       <c r="G100" s="3">
-        <v>-982900</v>
+        <v>-961800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3852900</v>
+        <v>-3770500</v>
       </c>
       <c r="I100" s="3">
-        <v>1146700</v>
+        <v>1122200</v>
       </c>
       <c r="J100" s="3">
-        <v>-7406300</v>
+        <v>-7247900</v>
       </c>
       <c r="K100" s="3">
         <v>-6993600</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19100</v>
+        <v>-18700</v>
       </c>
       <c r="E101" s="3">
-        <v>-253600</v>
+        <v>-248100</v>
       </c>
       <c r="F101" s="3">
-        <v>280500</v>
+        <v>274500</v>
       </c>
       <c r="G101" s="3">
-        <v>299600</v>
+        <v>293200</v>
       </c>
       <c r="H101" s="3">
-        <v>362400</v>
+        <v>354700</v>
       </c>
       <c r="I101" s="3">
-        <v>-187400</v>
+        <v>-183400</v>
       </c>
       <c r="J101" s="3">
-        <v>-31400</v>
+        <v>-30700</v>
       </c>
       <c r="K101" s="3">
         <v>-47000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>411800</v>
+        <v>403000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4976000</v>
+        <v>-4869600</v>
       </c>
       <c r="F102" s="3">
-        <v>953700</v>
+        <v>933300</v>
       </c>
       <c r="G102" s="3">
-        <v>-702400</v>
+        <v>-687300</v>
       </c>
       <c r="H102" s="3">
-        <v>-501500</v>
+        <v>-490800</v>
       </c>
       <c r="I102" s="3">
-        <v>4425100</v>
+        <v>4330500</v>
       </c>
       <c r="J102" s="3">
-        <v>310800</v>
+        <v>304100</v>
       </c>
       <c r="K102" s="3">
         <v>1104600</v>
